--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mismn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\healthApp\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB0BBD-5349-4511-9797-955E7F66B876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18C0D1-90CE-4F85-B456-A33011F96C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2720" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12070" yWindow="0" windowWidth="7220" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="227">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1699,33 +1699,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>レシピ一覧画面</t>
-    <rPh sb="3" eb="7">
-      <t>イチランガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>レシピ詳細画面</t>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>レシピ投稿画面</t>
-    <rPh sb="3" eb="5">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>栄養トラッカー画面</t>
     <rPh sb="0" eb="2">
       <t>エイヨウ</t>
@@ -1898,45 +1871,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー名、パスワード変更入力画面</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー名、パスワード変更確認画面</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニンヘンコウニュウリョクガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー名、パスワード変更完了画面</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>カンリョウガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー名とパスワードを変更する画面</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -2002,113 +1936,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー自身の投稿削除画面</t>
-    <rPh sb="4" eb="6">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>サクジョガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー自身の投稿レシピ一覧画面</t>
-    <rPh sb="4" eb="6">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー自身が投稿したレシピを表示する画面</t>
-    <rPh sb="4" eb="6">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー自身が投稿したレシピを削除する画面</t>
-    <rPh sb="4" eb="6">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>運動量を計算する画面</t>
-    <rPh sb="0" eb="3">
-      <t>ウンドウリョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>運動量トラッカー画面</t>
-    <rPh sb="0" eb="3">
-      <t>ウンドウリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>栄養トラッカーを表示する画面</t>
-    <rPh sb="0" eb="2">
-      <t>エイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>レシピ詳細表示</t>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>G1-3-1</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2142,10 +1969,6 @@
   </si>
   <si>
     <t>G1-7-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-7-5</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2164,26 +1987,254 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>一覧表示</t>
-    <rPh sb="0" eb="4">
-      <t>イチランヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>投稿削除</t>
-    <rPh sb="0" eb="4">
-      <t>トウコウサクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>情報表示、入力フォーム</t>
     <rPh sb="0" eb="4">
       <t>ジョウホウヒョウジ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康アプリのトップ画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>ヘンコウカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更完了画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヘンコウカンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投稿完了</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピの投稿が完了したことを知らせる画面</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピ一覧表示</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-4-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード再設定画面</t>
+    <rPh sb="5" eb="10">
+      <t>サイセッテイガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレスを入力してパスワードをリセットする画面</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康レシピ一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康レシピ詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康レシピ投稿画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康レシピ投稿完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピ一覧表示</t>
+    <rPh sb="3" eb="7">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピ詳細表示</t>
+    <rPh sb="2" eb="6">
+      <t>ショウサイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運動量表示</t>
+    <rPh sb="0" eb="3">
+      <t>ウンドウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運動量入力</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運動量を入力して計算する画面</t>
+    <rPh sb="0" eb="3">
+      <t>ウンドウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一日の摂取カロリーを計算する画面</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カロリー表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カロリー入力</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運動量計算画面</t>
+    <rPh sb="0" eb="3">
+      <t>ウンドウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2705,6 +2756,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2714,6 +2780,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2722,117 +2884,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2957,13 +3008,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>840441</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4440,16 +4491,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="71" t="s">
+      <c r="Y2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="85">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="96">
         <v>45189</v>
       </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="87"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="98"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4563,26 +4614,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="88" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="90"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="64"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4601,26 +4652,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="73" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="75"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="86"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4628,40 +4679,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="71" t="s">
+      <c r="Y7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="71" t="s">
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="71" t="s">
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="72"/>
+      <c r="AD7" s="66"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="78"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4669,14 +4720,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="92" t="s">
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="AD8" s="93"/>
+      <c r="AD8" s="72"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4706,12 +4757,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="95"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="74"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4741,12 +4792,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="97"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="76"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4787,105 +4838,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="91"/>
-      <c r="AA12" s="91"/>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="91"/>
-      <c r="AD12" s="91"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="91"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="91"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="91"/>
-      <c r="AC14" s="91"/>
-      <c r="AD14" s="91"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -5097,255 +5148,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="62" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="62" t="s">
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="62" t="s">
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="64"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="69"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65">
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="102">
         <v>45189</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68" t="s">
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="62" t="s">
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="64"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="69"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="64"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="69"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="64"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="69"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="64"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="101"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="69"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="63"/>
-      <c r="AD26" s="64"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="101"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="69"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="64"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="69"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5453,31 +5504,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5494,6 +5520,31 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5508,10 +5559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -5521,7 +5572,7 @@
     <col min="3" max="3" width="21.36328125" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" customWidth="1"/>
     <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.36328125" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" customWidth="1"/>
     <col min="9" max="9" width="19.6328125" customWidth="1"/>
@@ -5708,7 +5759,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="48"/>
@@ -5721,7 +5772,7 @@
         <v>161</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>82</v>
@@ -5733,14 +5784,14 @@
         <v>43</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>162</v>
@@ -5749,29 +5800,29 @@
         <v>41</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>150</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>82</v>
@@ -5780,23 +5831,23 @@
         <v>150</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>82</v>
@@ -5805,22 +5856,22 @@
         <v>150</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -5833,20 +5884,20 @@
         <v>96</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
+        <v>213</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>82</v>
@@ -5855,10 +5906,10 @@
         <v>151</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
@@ -5868,10 +5919,10 @@
         <v>106</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>82</v>
@@ -5880,314 +5931,324 @@
         <v>151</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="29"/>
+      <c r="E18" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>152</v>
+      <c r="E19" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="F19" s="61" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>96</v>
+        <v>152</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>43</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>193</v>
+      <c r="G22" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="H22" s="49"/>
-      <c r="I22" s="52"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="25" t="s">
-        <v>210</v>
+      <c r="A23" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>43</v>
+      <c r="E23" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>171</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>174</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>204</v>
+      <c r="E24" s="60" t="s">
+        <v>210</v>
       </c>
       <c r="F24" s="60" t="s">
         <v>43</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>96</v>
+        <v>218</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>219</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A26" s="59" t="s">
-        <v>213</v>
+      <c r="A26" s="25" t="s">
+        <v>198</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>174</v>
+        <v>216</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>43</v>
+        <v>202</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="G26" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A27" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="59" t="s">
-        <v>214</v>
-      </c>
       <c r="B27" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>174</v>
+        <v>217</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>43</v>
+        <v>202</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="G27" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" customHeight="1">
+      <c r="A28" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A28" s="59" t="s">
-        <v>215</v>
-      </c>
       <c r="B28" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>225</v>
+      </c>
       <c r="G28" s="22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>221</v>
+      </c>
       <c r="G29" s="22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="21"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="23"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="51"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1">
       <c r="A31" s="21"/>
@@ -6197,8 +6258,8 @@
       <c r="E31" s="30"/>
       <c r="F31" s="23"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
       <c r="A32" s="21"/>
@@ -6209,50 +6270,50 @@
       <c r="F32" s="23"/>
       <c r="G32" s="22"/>
       <c r="H32" s="49"/>
-      <c r="I32" s="52"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="24"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
       <c r="A34" s="21"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="27"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="23"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="23"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="24"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="31"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="22"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="34"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1">
@@ -6260,10 +6321,10 @@
       <c r="B37" s="18"/>
       <c r="C37" s="22"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="34"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1">
@@ -6285,7 +6346,7 @@
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="31"/>
+      <c r="H39" s="34"/>
       <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1">
@@ -6296,7 +6357,7 @@
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="31"/>
+      <c r="H40" s="34"/>
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1">
@@ -6318,8 +6379,8 @@
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="33"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1">
       <c r="A43" s="21"/>
@@ -6329,8 +6390,8 @@
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="33"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1">
       <c r="A44" s="21"/>
@@ -6341,7 +6402,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="22"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="24"/>
+      <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1">
       <c r="A45" s="21"/>
@@ -6352,7 +6413,29 @@
       <c r="F45" s="30"/>
       <c r="G45" s="22"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="24"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6380,7 +6463,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -7257,6 +7340,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
@@ -7264,15 +7356,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7294,6 +7377,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7301,12 +7392,4 @@
     <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\healthApp\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\healthApp\healthApp\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18C0D1-90CE-4F85-B456-A33011F96C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907C3A16-7EBE-4F46-9073-524C77A1B010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12070" yWindow="0" windowWidth="7220" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="228">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1600,13 +1600,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログアウト完了画面</t>
-    <rPh sb="5" eb="9">
-      <t>カンリョウガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>新規登録入力画面</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -1771,16 +1764,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログアウトを知らせる画面</t>
-    <rPh sb="6" eb="7">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー情報を新規登録する画面</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -1936,50 +1919,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-3-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-3-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-3-3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-6-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-7-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-7-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-7-3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-7-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G-1-8</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G-1-9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>レシピ投稿</t>
     <rPh sb="3" eb="5">
       <t>トウコウ</t>
@@ -2073,10 +2012,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-4-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>パスワード再設定画面</t>
     <rPh sb="5" eb="10">
       <t>サイセッテイガメン</t>
@@ -2236,6 +2171,66 @@
     <rPh sb="5" eb="7">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G3-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G3-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G3-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G3-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G4-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G5-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G5-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G5-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G5-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G7-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G8-1</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2756,6 +2751,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2765,21 +2838,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2821,69 +2879,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3008,13 +3003,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>840441</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4491,16 +4486,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="65" t="s">
+      <c r="Y2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="96">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="85">
         <v>45189</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="98"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="87"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4614,26 +4609,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="62" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="64"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="90"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4652,26 +4647,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="84" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="86"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="75"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4679,40 +4674,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="65" t="s">
+      <c r="Y7" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="65" t="s">
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="65" t="s">
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="66"/>
+      <c r="AD7" s="72"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="89"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4720,14 +4715,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="71" t="s">
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="AD8" s="72"/>
+      <c r="AD8" s="93"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4757,12 +4752,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="74"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="95"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4792,12 +4787,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="76"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="97"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4838,105 +4833,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="91"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -5148,255 +5143,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="67" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="67" t="s">
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="69"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="64"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="102">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65">
         <v>45189</v>
       </c>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="99" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="67" t="s">
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="69"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="64"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="69"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="64"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="69"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="64"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="100"/>
-      <c r="X25" s="100"/>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="69"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="64"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="69"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="64"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="69"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="64"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5504,6 +5499,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5520,31 +5540,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5559,11 +5554,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -5759,48 +5752,48 @@
         <v>43</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>161</v>
       </c>
       <c r="C11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>43</v>
+      <c r="E11" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>172</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>150</v>
@@ -5809,20 +5802,20 @@
         <v>173</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>82</v>
@@ -5834,44 +5827,44 @@
         <v>174</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="A15" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -5884,20 +5877,20 @@
         <v>96</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
+        <v>148</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>166</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>82</v>
@@ -5906,23 +5899,23 @@
         <v>151</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>167</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>82</v>
@@ -5934,315 +5927,301 @@
         <v>174</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>175</v>
+      <c r="E18" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>43</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>43</v>
+      <c r="E19" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="F19" s="61" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>43</v>
+        <v>175</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>149</v>
+      <c r="G22" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>195</v>
+      <c r="A23" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>177</v>
+      <c r="E23" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>210</v>
+      <c r="E24" s="23" t="s">
+        <v>204</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>219</v>
+        <v>189</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H26" s="49"/>
       <c r="I26" s="52"/>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>199</v>
+    <row r="27" spans="1:9" ht="17" customHeight="1">
+      <c r="A27" s="59" t="s">
+        <v>226</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>190</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>211</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="52"/>
     </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1">
-      <c r="A28" s="59" t="s">
-        <v>200</v>
+    <row r="28" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A28" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>203</v>
+        <v>212</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>222</v>
-      </c>
+      <c r="A29" s="59"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="53"/>
       <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="59"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="23"/>
@@ -6258,8 +6237,8 @@
       <c r="E31" s="30"/>
       <c r="F31" s="23"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="52"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
       <c r="A32" s="21"/>
@@ -6270,7 +6249,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="22"/>
       <c r="H32" s="49"/>
-      <c r="I32" s="51"/>
+      <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
       <c r="A33" s="21"/>
@@ -6281,34 +6260,34 @@
       <c r="F33" s="23"/>
       <c r="G33" s="22"/>
       <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="52"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="27"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="23"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="31"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="27"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="30"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
@@ -6321,10 +6300,10 @@
       <c r="B37" s="18"/>
       <c r="C37" s="22"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="31"/>
+      <c r="H37" s="34"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1">
@@ -6357,7 +6336,7 @@
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="34"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1">
@@ -6390,8 +6369,8 @@
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="24"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1">
       <c r="A44" s="21"/>
@@ -6413,7 +6392,7 @@
       <c r="F45" s="30"/>
       <c r="G45" s="22"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="33"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1">
       <c r="A46" s="21"/>
@@ -6425,17 +6404,6 @@
       <c r="G46" s="22"/>
       <c r="H46" s="21"/>
       <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7168,6 +7136,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -7339,26 +7326,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5718036E-E7D8-4DA8-86AF-D97852189258}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7374,22 +7360,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>